--- a/ExcelWorkBooks/Test.xlsx
+++ b/ExcelWorkBooks/Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,675 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>COOPER, DURANT</t>
+  </si>
+  <si>
+    <t>5483 KAREN CT</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>(407) 293-6393</t>
+  </si>
+  <si>
+    <t>MORRIS, REGINALD</t>
+  </si>
+  <si>
+    <t>4715 S RIO GRANDE AVE</t>
+  </si>
+  <si>
+    <t>(321) 287-2400</t>
+  </si>
+  <si>
+    <t>2013-09-22</t>
+  </si>
+  <si>
+    <t>MLK</t>
+  </si>
+  <si>
+    <t>2013-10-03</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>2013-10-04</t>
+  </si>
+  <si>
+    <t>KRAMER, YVONNE</t>
+  </si>
+  <si>
+    <t>2753 ENVIRONS BLVD</t>
+  </si>
+  <si>
+    <t>(407) 535-7600</t>
+  </si>
+  <si>
+    <t>2013-08-29</t>
+  </si>
+  <si>
+    <t>2013-09-06</t>
+  </si>
+  <si>
+    <t>SIENKO, JAMES</t>
+  </si>
+  <si>
+    <t>5261 BROKENARROW DR</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>(321) 437-4657</t>
+  </si>
+  <si>
+    <t>FORRESTER, NEPHI C</t>
+  </si>
+  <si>
+    <t>5261 BROKEN ARROW DR</t>
+  </si>
+  <si>
+    <t>(407) 715-8717</t>
+  </si>
+  <si>
+    <t>2013-08-30</t>
+  </si>
+  <si>
+    <t>---9/30/13 : MLK---
+Will be making a payment this week
+Def not working</t>
+  </si>
+  <si>
+    <t>SCHOENAUER, DIANNE</t>
+  </si>
+  <si>
+    <t>5030 IRLE BRONSON HWY</t>
+  </si>
+  <si>
+    <t>(407) 158-717</t>
+  </si>
+  <si>
+    <t>RUIZ, JOSE</t>
+  </si>
+  <si>
+    <t>3031 PINEBRANCH DR</t>
+  </si>
+  <si>
+    <t>APT 204</t>
+  </si>
+  <si>
+    <t>(407) 350-6020</t>
+  </si>
+  <si>
+    <t>ALDAG-CROCKER, ANKE</t>
+  </si>
+  <si>
+    <t>342 FERRARA CT</t>
+  </si>
+  <si>
+    <t>(407) 729-7493</t>
+  </si>
+  <si>
+    <t>2013-08-14</t>
+  </si>
+  <si>
+    <t>2013-10-07</t>
+  </si>
+  <si>
+    <t>2013-08-24</t>
+  </si>
+  <si>
+    <t>ALDAG, DESIREE</t>
+  </si>
+  <si>
+    <t>APT  204</t>
+  </si>
+  <si>
+    <t>STREETER, ANTWAUN  J.</t>
+  </si>
+  <si>
+    <t>5184 LESCOT LANE</t>
+  </si>
+  <si>
+    <t>(407) 523-9022</t>
+  </si>
+  <si>
+    <t>ROBINSON, DEBORAH</t>
+  </si>
+  <si>
+    <t>5184 LESCOT LN</t>
+  </si>
+  <si>
+    <t>(407) 219-1691</t>
+  </si>
+  <si>
+    <t>2013-07-27</t>
+  </si>
+  <si>
+    <t>1,150.00</t>
+  </si>
+  <si>
+    <t>2013-08-02</t>
+  </si>
+  <si>
+    <t>MARZAK, STEPHEN CLAYTON</t>
+  </si>
+  <si>
+    <t>2143 LAKE DEBRA DR</t>
+  </si>
+  <si>
+    <t>(407) 600-9861</t>
+  </si>
+  <si>
+    <t>MURRAY, MAKEBA</t>
+  </si>
+  <si>
+    <t>2413 LAKE DEBRA</t>
+  </si>
+  <si>
+    <t>2013-08-28</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>2013-08-10</t>
+  </si>
+  <si>
+    <t>BARELA, CATALINA</t>
+  </si>
+  <si>
+    <t>8943 VALENCIA GARDENS DR</t>
+  </si>
+  <si>
+    <t>(407) 534-9872</t>
+  </si>
+  <si>
+    <t>NGUYEN, MINH</t>
+  </si>
+  <si>
+    <t>8943 VALENCIA GARDEN DR</t>
+  </si>
+  <si>
+    <t>(407) 534-9870</t>
+  </si>
+  <si>
+    <t>2013-07-22</t>
+  </si>
+  <si>
+    <t>2013-09-13</t>
+  </si>
+  <si>
+    <t>1,390.00</t>
+  </si>
+  <si>
+    <t>2013-08-03</t>
+  </si>
+  <si>
+    <t>WOLFREY, MATTHEW EDWARD</t>
+  </si>
+  <si>
+    <t>2826 SALISBURY BLVD</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>(407) 462-2709</t>
+  </si>
+  <si>
+    <t>WOLFREY, EDWARD</t>
+  </si>
+  <si>
+    <t>(407) 373-9556</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>LENNON, WILLIAM</t>
+  </si>
+  <si>
+    <t>1615 MITCHELL CT</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>(321) 614-5762</t>
+  </si>
+  <si>
+    <t>FARRELL, DANA</t>
+  </si>
+  <si>
+    <t>6776 SHERIDON RD</t>
+  </si>
+  <si>
+    <t>(321) 821-1016</t>
+  </si>
+  <si>
+    <t>2013-09-21</t>
+  </si>
+  <si>
+    <t>KHAN, CHRISTOPHER R.</t>
+  </si>
+  <si>
+    <t>53 WINDTREE LN</t>
+  </si>
+  <si>
+    <t>(407) 233-5500</t>
+  </si>
+  <si>
+    <t>KHAN, ANETHA</t>
+  </si>
+  <si>
+    <t>P.O. BOX 935</t>
+  </si>
+  <si>
+    <t>407-614-5094;407-934-7960</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>(407) 312-9580</t>
+  </si>
+  <si>
+    <t>2013-09-26</t>
+  </si>
+  <si>
+    <t>TOLIVER, VIRGIL</t>
+  </si>
+  <si>
+    <t>5435 SEEDLING LN</t>
+  </si>
+  <si>
+    <t>(407) 291-4413</t>
+  </si>
+  <si>
+    <t>LANHAM, BARRY</t>
+  </si>
+  <si>
+    <t>1406 19TH ST</t>
+  </si>
+  <si>
+    <t>(407) 860-0674</t>
+  </si>
+  <si>
+    <t>PETERS, TRANESSA</t>
+  </si>
+  <si>
+    <t>1135-18 VIZKAYA LAKES RD</t>
+  </si>
+  <si>
+    <t>APT 101</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>(407) 237-0639</t>
+  </si>
+  <si>
+    <t>TURNER, RICKY</t>
+  </si>
+  <si>
+    <t>305 STERLING LAKE DR</t>
+  </si>
+  <si>
+    <t>(469) 450-9224</t>
+  </si>
+  <si>
+    <t>2013-09-27</t>
+  </si>
+  <si>
+    <t>GOMEZ, DAVID</t>
+  </si>
+  <si>
+    <t>5135 HAWKSTONE DR</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>(407) 375-3928</t>
+  </si>
+  <si>
+    <t>LEYBA, SANDRA</t>
+  </si>
+  <si>
+    <t>2013-09-15</t>
+  </si>
+  <si>
+    <t>JENKINS, BRYE</t>
+  </si>
+  <si>
+    <t>4356 AETNA DR</t>
+  </si>
+  <si>
+    <t>(407) 515-0304</t>
+  </si>
+  <si>
+    <t>JENKINS, NICOLE</t>
+  </si>
+  <si>
+    <t>(407) 952-6683</t>
+  </si>
+  <si>
+    <t>2013-09-11</t>
+  </si>
+  <si>
+    <t>2013-10-06</t>
+  </si>
+  <si>
+    <t>2013-09-20</t>
+  </si>
+  <si>
+    <t>NELSON, HUGH</t>
+  </si>
+  <si>
+    <t>13619 SOLID HALL CIR</t>
+  </si>
+  <si>
+    <t>(407) 272-8007</t>
+  </si>
+  <si>
+    <t>SMITH, NEIL</t>
+  </si>
+  <si>
+    <t>405 NORTH LAKE BLVD</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>(407) 715-1771</t>
+  </si>
+  <si>
+    <t>BALESKIE, MARENA</t>
+  </si>
+  <si>
+    <t>1226 SUNSHIRE BLVD</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>(407) 556-4394</t>
+  </si>
+  <si>
+    <t>BEARD, DENISE</t>
+  </si>
+  <si>
+    <t>8713 DONCASTER RD</t>
+  </si>
+  <si>
+    <t>(321) 280-0414</t>
+  </si>
+  <si>
+    <t>TATOM, MICHAEL</t>
+  </si>
+  <si>
+    <t>(407) 721-6449</t>
+  </si>
+  <si>
+    <t>BERNARD, STEVE</t>
+  </si>
+  <si>
+    <t>2400 FLOWER CORAL DR</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>(407) 953-7201</t>
+  </si>
+  <si>
+    <t>EDWARDS, MARANDA</t>
+  </si>
+  <si>
+    <t>APT 102</t>
+  </si>
+  <si>
+    <t>WHITAKER, ALLEN</t>
+  </si>
+  <si>
+    <t>7785 BRANCHWOOD LANE</t>
+  </si>
+  <si>
+    <t>APT 7725</t>
+  </si>
+  <si>
+    <t>(321) 331-0833</t>
+  </si>
+  <si>
+    <t>BROOKS, ALYSSA</t>
+  </si>
+  <si>
+    <t>9209 TOBY LN</t>
+  </si>
+  <si>
+    <t>(407) 765-0744</t>
+  </si>
+  <si>
+    <t>2013-08-17</t>
+  </si>
+  <si>
+    <t>2013-08-23</t>
+  </si>
+  <si>
+    <t>COBB, AMINA</t>
+  </si>
+  <si>
+    <t>1631 BRUTON BLVD</t>
+  </si>
+  <si>
+    <t>(407) 960-7524</t>
+  </si>
+  <si>
+    <t>COBB, MAKENA</t>
+  </si>
+  <si>
+    <t>4010 FORD ST</t>
+  </si>
+  <si>
+    <t>(407) 558-7860</t>
+  </si>
+  <si>
+    <t>2013-08-16</t>
+  </si>
+  <si>
+    <t>2013-09-05</t>
+  </si>
+  <si>
+    <t>2013-08-27</t>
+  </si>
+  <si>
+    <t>CONTOSTA, JESSICA</t>
+  </si>
+  <si>
+    <t>1068 ANDOVER PL</t>
+  </si>
+  <si>
+    <t>RIO GRANDE</t>
+  </si>
+  <si>
+    <t>(407) 324-6156</t>
+  </si>
+  <si>
+    <t>DUNN, JENNIFER LYNN</t>
+  </si>
+  <si>
+    <t>300 E CHURCH ST</t>
+  </si>
+  <si>
+    <t>APT 808</t>
+  </si>
+  <si>
+    <t>(407) 515-4147</t>
+  </si>
+  <si>
+    <t>JEROME, SELESTY</t>
+  </si>
+  <si>
+    <t>2785 BENT WILLOW CIR</t>
+  </si>
+  <si>
+    <t>(407) 289-6978</t>
+  </si>
+  <si>
+    <t>TRENARD, DANIEL</t>
+  </si>
+  <si>
+    <t>433 W MINNESOTA AVE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>(407) 800-5330</t>
+  </si>
+  <si>
+    <t>2013-08-13</t>
+  </si>
+  <si>
+    <t>BOYD, DWAYNE</t>
+  </si>
+  <si>
+    <t>5234 MILLENIA BLVD</t>
+  </si>
+  <si>
+    <t>(407) 800-7521</t>
+  </si>
+  <si>
+    <t>TRACY, DALLAS</t>
+  </si>
+  <si>
+    <t>(727) 286-0267</t>
+  </si>
+  <si>
+    <t>2013-08-09</t>
+  </si>
+  <si>
+    <t>SANDERS, LAQUANDA</t>
+  </si>
+  <si>
+    <t>1148 REDMAN ST</t>
+  </si>
+  <si>
+    <t>(352) 702-5698</t>
+  </si>
+  <si>
+    <t>2013-08-07</t>
+  </si>
+  <si>
+    <t>VILCEAN, REGINALD</t>
+  </si>
+  <si>
+    <t>2237 N FORSYTH DR</t>
+  </si>
+  <si>
+    <t>(407) 393-8680</t>
+  </si>
+  <si>
+    <t>NOEL, MARCNER</t>
+  </si>
+  <si>
+    <t>5135 REBECCA CT</t>
+  </si>
+  <si>
+    <t>(407) 936-8722</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>---8/09/13 : MLK---
+Reggie called to say he only had one day
+on his check that he will be working full
+time hours next week and bring in his 
+first payment</t>
+  </si>
+  <si>
+    <t>SHEPARD, LATAVIOUS</t>
+  </si>
+  <si>
+    <t>800 RAVERNS CIR</t>
+  </si>
+  <si>
+    <t>APT 106</t>
+  </si>
+  <si>
+    <t>(321) 594-0005</t>
+  </si>
+  <si>
+    <t>AUSTIN, KRYSTAL</t>
+  </si>
+  <si>
+    <t>14 STERLING BROWN ST</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>(321) 594-8285</t>
+  </si>
+  <si>
+    <t>WILLIS, FARRAH</t>
+  </si>
+  <si>
+    <t>12545 LONGSTAFF DR</t>
+  </si>
+  <si>
+    <t>(407) 719-3751</t>
+  </si>
+  <si>
+    <t>WILLIS, SHANNON</t>
+  </si>
+  <si>
+    <t>599 KILIMANJARO</t>
+  </si>
+  <si>
+    <t>(321) 442-1766</t>
+  </si>
+  <si>
+    <t>2013-07-26</t>
+  </si>
+  <si>
+    <t>JOHNSON, RONALD</t>
+  </si>
+  <si>
+    <t>25160 SE 172 ST</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>(352) 322-6097</t>
+  </si>
+  <si>
+    <t>JOHNSON, BEATRICE</t>
+  </si>
+  <si>
+    <t>25160 SE 172ND ST</t>
+  </si>
+  <si>
+    <t>2013-07-25</t>
+  </si>
+  <si>
+    <t>2013-07-30</t>
+  </si>
+  <si>
+    <t>1,700.00</t>
   </si>
 </sst>
 </file>
@@ -443,7 +1112,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +1211,2688 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2">
+        <v>45112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>32811</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>32839</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>500</v>
+      </c>
+      <c r="Y2">
+        <v>400</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2">
+        <v>24</v>
+      </c>
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3">
+        <v>45201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>32818</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3">
+        <v>32818</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>100</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3">
+        <v>48</v>
+      </c>
+      <c r="AD3"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4">
+        <v>45264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>34746</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4">
+        <v>34746</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4">
+        <v>47</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5">
+        <v>45264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>34746</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5">
+        <v>34746</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5">
+        <v>47</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6">
+        <v>45319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>34741</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6">
+        <v>34758</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6">
+        <v>50</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>500</v>
+      </c>
+      <c r="Y6">
+        <v>150</v>
+      </c>
+      <c r="Z6">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6">
+        <v>63</v>
+      </c>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7">
+        <v>45319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>34741</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7">
+        <v>34741</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7">
+        <v>50</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>500</v>
+      </c>
+      <c r="Y7">
+        <v>150</v>
+      </c>
+      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC7">
+        <v>63</v>
+      </c>
+      <c r="AD7"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8">
+        <v>45400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>32811</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>32811</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8">
+        <v>75</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1200</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8">
+        <v>775</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC8">
+        <v>81</v>
+      </c>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <v>45413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>32835</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>32835</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9">
+        <v>330</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>330</v>
+      </c>
+      <c r="Y9">
+        <v>225</v>
+      </c>
+      <c r="Z9">
+        <v>225</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9">
+        <v>81</v>
+      </c>
+      <c r="AD9"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <v>45446</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>32825</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <v>32825</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10">
+        <v>150</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1700</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z10">
+        <v>1340</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10">
+        <v>86</v>
+      </c>
+      <c r="AD10"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11">
+        <v>45073</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11">
+        <v>32787</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>32789</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11">
+        <v>50</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>250</v>
+      </c>
+      <c r="Y11">
+        <v>250</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11">
+        <v>12</v>
+      </c>
+      <c r="AD11"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
+        <v>45084</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12">
+        <v>32901</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12">
+        <v>32894</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12">
+        <v>50</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>250</v>
+      </c>
+      <c r="Y12">
+        <v>250</v>
+      </c>
+      <c r="Z12">
+        <v>200</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12">
+        <v>25</v>
+      </c>
+      <c r="AD12"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13">
+        <v>45092</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>34787</v>
+      </c>
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13">
+        <v>34760</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13">
+        <v>50</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>350</v>
+      </c>
+      <c r="Y13">
+        <v>350</v>
+      </c>
+      <c r="Z13">
+        <v>150</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC13">
+        <v>20</v>
+      </c>
+      <c r="AD13"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
+        <v>45096</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>32811</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14">
+        <v>32811</v>
+      </c>
+      <c r="O14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14">
+        <v>100</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>100</v>
+      </c>
+      <c r="Y14">
+        <v>100</v>
+      </c>
+      <c r="Z14">
+        <v>100</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC14">
+        <v>20</v>
+      </c>
+      <c r="AD14"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15">
+        <v>45107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>32805</v>
+      </c>
+      <c r="H15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15">
+        <v>32805</v>
+      </c>
+      <c r="O15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V15">
+        <v>100</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>100</v>
+      </c>
+      <c r="Y15">
+        <v>100</v>
+      </c>
+      <c r="Z15">
+        <v>100</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC15">
+        <v>33</v>
+      </c>
+      <c r="AD15"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16">
+        <v>45113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16">
+        <v>34761</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16">
+        <v>34761</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U16" t="s">
+        <v>106</v>
+      </c>
+      <c r="V16">
+        <v>200</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>200</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16">
+        <v>100</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC16">
+        <v>25</v>
+      </c>
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17">
+        <v>45149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17">
+        <v>32771</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17">
+        <v>32771</v>
+      </c>
+      <c r="O17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17" t="s">
+        <v>106</v>
+      </c>
+      <c r="V17">
+        <v>50</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>200</v>
+      </c>
+      <c r="Y17">
+        <v>200</v>
+      </c>
+      <c r="Z17">
+        <v>200</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC17">
+        <v>31</v>
+      </c>
+      <c r="AD17"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18">
+        <v>45157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>32808</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18">
+        <v>32808</v>
+      </c>
+      <c r="O18" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>150</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>151</v>
+      </c>
+      <c r="U18" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18">
+        <v>250</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>250</v>
+      </c>
+      <c r="Y18">
+        <v>75</v>
+      </c>
+      <c r="Z18">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC18">
+        <v>35</v>
+      </c>
+      <c r="AD18"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19">
+        <v>45182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>32828</v>
+      </c>
+      <c r="H19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19">
+        <v>32701</v>
+      </c>
+      <c r="O19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>144</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19">
+        <v>50</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>500</v>
+      </c>
+      <c r="Y19">
+        <v>500</v>
+      </c>
+      <c r="Z19">
+        <v>250</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC19">
+        <v>31</v>
+      </c>
+      <c r="AD19"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20">
+        <v>45182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>32828</v>
+      </c>
+      <c r="H20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20">
+        <v>32779</v>
+      </c>
+      <c r="O20" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20" t="s">
+        <v>106</v>
+      </c>
+      <c r="V20">
+        <v>50</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>500</v>
+      </c>
+      <c r="Y20">
+        <v>500</v>
+      </c>
+      <c r="Z20">
+        <v>250</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC20">
+        <v>31</v>
+      </c>
+      <c r="AD20"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21">
+        <v>45262</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>32810</v>
+      </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>32810</v>
+      </c>
+      <c r="O21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21" t="s">
+        <v>106</v>
+      </c>
+      <c r="V21">
+        <v>200</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>200</v>
+      </c>
+      <c r="Y21">
+        <v>200</v>
+      </c>
+      <c r="Z21">
+        <v>200</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC21">
+        <v>49</v>
+      </c>
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22">
+        <v>45274</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>32808</v>
+      </c>
+      <c r="H22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>32808</v>
+      </c>
+      <c r="O22" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22" t="s">
+        <v>106</v>
+      </c>
+      <c r="V22">
+        <v>350</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>350</v>
+      </c>
+      <c r="Y22">
+        <v>350</v>
+      </c>
+      <c r="Z22">
+        <v>350</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22">
+        <v>53</v>
+      </c>
+      <c r="AD22"/>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23">
+        <v>45300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>32792</v>
+      </c>
+      <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>32817</v>
+      </c>
+      <c r="O23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>182</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" t="s">
+        <v>106</v>
+      </c>
+      <c r="V23">
+        <v>1049</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>1049</v>
+      </c>
+      <c r="Y23">
+        <v>374</v>
+      </c>
+      <c r="Z23">
+        <v>374</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC23">
+        <v>60</v>
+      </c>
+      <c r="AD23"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24">
+        <v>45311</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>32805</v>
+      </c>
+      <c r="H24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24">
+        <v>32811</v>
+      </c>
+      <c r="O24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24">
+        <v>124.4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>190</v>
+      </c>
+      <c r="R24">
+        <v>7</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" t="s">
+        <v>191</v>
+      </c>
+      <c r="U24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V24">
+        <v>400</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>400</v>
+      </c>
+      <c r="Y24">
+        <v>250</v>
+      </c>
+      <c r="Z24">
+        <v>250</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC24">
+        <v>61</v>
+      </c>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25">
+        <v>45317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>32805</v>
+      </c>
+      <c r="H25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>32805</v>
+      </c>
+      <c r="O25" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>182</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25" t="s">
+        <v>106</v>
+      </c>
+      <c r="V25">
+        <v>50</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>500</v>
+      </c>
+      <c r="Y25">
+        <v>500</v>
+      </c>
+      <c r="Z25">
+        <v>450</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC25">
+        <v>60</v>
+      </c>
+      <c r="AD25"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26">
+        <v>45318</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>32801</v>
+      </c>
+      <c r="H26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26">
+        <v>32801</v>
+      </c>
+      <c r="O26" t="s">
+        <v>200</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>182</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26">
+        <v>50</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>440</v>
+      </c>
+      <c r="Y26">
+        <v>440</v>
+      </c>
+      <c r="Z26">
+        <v>440</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC26">
+        <v>60</v>
+      </c>
+      <c r="AD26"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27">
+        <v>45322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>32808</v>
+      </c>
+      <c r="H27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27">
+        <v>32720</v>
+      </c>
+      <c r="O27" t="s">
+        <v>207</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27" t="s">
+        <v>106</v>
+      </c>
+      <c r="V27">
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>100</v>
+      </c>
+      <c r="Y27">
+        <v>100</v>
+      </c>
+      <c r="Z27">
+        <v>100</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC27">
+        <v>75</v>
+      </c>
+      <c r="AD27"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28">
+        <v>45347</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>32839</v>
+      </c>
+      <c r="H28" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28">
+        <v>32839</v>
+      </c>
+      <c r="O28" t="s">
+        <v>213</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>214</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28" t="s">
+        <v>106</v>
+      </c>
+      <c r="V28">
+        <v>100</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>100</v>
+      </c>
+      <c r="Y28">
+        <v>100</v>
+      </c>
+      <c r="Z28">
+        <v>100</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC28">
+        <v>68</v>
+      </c>
+      <c r="AD28"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29">
+        <v>45368</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>32839</v>
+      </c>
+      <c r="H29" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29">
+        <v>32839</v>
+      </c>
+      <c r="O29" t="s">
+        <v>217</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>218</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29" t="s">
+        <v>106</v>
+      </c>
+      <c r="V29">
+        <v>100</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>100</v>
+      </c>
+      <c r="Y29">
+        <v>100</v>
+      </c>
+      <c r="Z29">
+        <v>100</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC29">
+        <v>70</v>
+      </c>
+      <c r="AD29"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30">
+        <v>45373</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>32808</v>
+      </c>
+      <c r="H30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>32810</v>
+      </c>
+      <c r="O30" t="s">
+        <v>224</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>225</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" t="s">
+        <v>123</v>
+      </c>
+      <c r="U30" t="s">
+        <v>106</v>
+      </c>
+      <c r="V30">
+        <v>50</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>423</v>
+      </c>
+      <c r="Y30">
+        <v>223</v>
+      </c>
+      <c r="Z30">
+        <v>223</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC30">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31">
+        <v>45384</v>
+      </c>
+      <c r="B31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31">
+        <v>32714</v>
+      </c>
+      <c r="H31" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>233</v>
+      </c>
+      <c r="N31">
+        <v>32703</v>
+      </c>
+      <c r="O31" t="s">
+        <v>234</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>99</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31"/>
+      <c r="U31" t="s">
+        <v>106</v>
+      </c>
+      <c r="V31">
+        <v>50</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>100</v>
+      </c>
+      <c r="Y31">
+        <v>100</v>
+      </c>
+      <c r="Z31">
+        <v>100</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC31">
+        <v>74</v>
+      </c>
+      <c r="AD31"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32">
+        <v>45424</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32">
+        <v>32836</v>
+      </c>
+      <c r="H32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32">
+        <v>34758</v>
+      </c>
+      <c r="O32" t="s">
+        <v>240</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>241</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32"/>
+      <c r="U32" t="s">
+        <v>106</v>
+      </c>
+      <c r="V32">
+        <v>50</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>50</v>
+      </c>
+      <c r="Y32">
+        <v>50</v>
+      </c>
+      <c r="Z32">
+        <v>50</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC32">
+        <v>82</v>
+      </c>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33">
+        <v>45426</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33">
+        <v>32784</v>
+      </c>
+      <c r="H33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>244</v>
+      </c>
+      <c r="N33">
+        <v>32784</v>
+      </c>
+      <c r="O33" t="s">
+        <v>245</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>248</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" t="s">
+        <v>249</v>
+      </c>
+      <c r="U33" t="s">
+        <v>106</v>
+      </c>
+      <c r="V33">
+        <v>153</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>2300</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z33">
+        <v>1236</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC33">
+        <v>83</v>
+      </c>
+      <c r="AD33"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
